--- a/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="54">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>fpr</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
   <si>
     <t>pr</t>
@@ -90,110 +87,6 @@
   </si>
   <si>
     <t>WILL_DDoS_AD</t>
-  </si>
-  <si>
-    <t>[0.         0.00200381 0.00200584 0.00200685 0.00200989 0.59978269
- 0.59978573 0.59978877 0.59978979 0.59979485 0.59979891 0.599806
- 0.59981107 0.5998131  0.72028818 0.72029527 0.7202973  0.72030338
- 0.72031352 0.7203196  0.72032973 0.72034088 0.72034392 0.72035304
- 0.7203571  0.72036622 0.72037636 0.72038852 0.72040474 0.72041588
- 0.72042399 0.72043818 0.72045947 0.72046758 0.72048582 0.72050001
- 0.72051927 0.72053954 0.72056184 0.72056589 0.72059224 0.72060948
- 0.72062164 0.72062671 0.72064394 0.7206561  0.72070678 0.72075948
- 0.80433987 0.8043571  0.85361928 0.85362131 0.85362333 0.85362536
- 0.8536355  0.85363854 0.85363955 0.85364361 0.85364563 0.85365171
- 0.85365273 0.85366894 0.86214739 0.86215145 0.87010791 0.87010994
- 0.87188063 0.87188063 0.87188469 0.87188773 0.87188773 0.96784473
- 0.96784473 0.96784473 0.96784473 0.96784676 0.96784878 0.96784878
- 0.96784878 0.96945123 0.96945123 0.96945123 0.96945123 0.96945123
- 0.96945123 0.96945123 0.96945123 0.96945123 0.96945325 0.96945325
- 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325
- 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325 0.96945528
- 0.96945528 0.96945528 0.96945629 0.96945832 0.96945832 0.96945832
- 0.96945832 0.96945832 0.96945832 0.96945832 0.96945832 0.96945832
- 0.96945832 0.96945934 0.96946136 0.96946136 0.96946136 0.96946136
- 0.96946136 0.96946136 0.96980496 0.96980496 0.96980496 0.96980496
- 0.96980496 0.96980496 0.96980597 0.96980597 0.96980597 0.96980597
- 0.96980597 0.96980597 0.96980597 0.96980597 0.96980699 0.97140233
- 0.97140233 0.97140233 0.97140233 0.97140233 0.97140233 0.97140233
- 0.97140233 0.97140233 0.97140233 0.9717287  0.9717287  0.9717287
- 0.97172972 0.97172972 0.97172972 0.97172972 0.97172972 0.97172972
- 0.97172972 0.97172972 0.97173073 0.97173073 0.97173073 0.97173276
- 0.97173276 0.97173276 0.97173377 0.97173377 0.97511907 0.97511907
- 0.97511907 0.97511907 0.97511907 0.97511907 0.97511907 0.97511907
- 0.97511907 0.97511907 0.97511907 0.97511907 0.97512008 0.97512008
- 0.97512008 0.97512008 0.97512008 0.9751211  0.9751211  0.97512211
- 0.97512211 0.97512211 0.97512211 0.97512211 0.97512211 0.97512211
- 0.97512312 0.97512312 0.97512312 0.97512312 0.97512312 0.97512312
- 0.97512312 0.97512312 0.97512414 0.97512414 0.97512414 0.97512414
- 0.97512616 0.97512616 0.97512616 0.97512718 0.97512718 0.97512718
- 0.97512718 0.97512718 0.97512718 0.97513123 0.97513123 0.97513123
- 0.97513326 0.97513427 0.97513427 0.97513529 0.97513529 0.97513529
- 0.97513934 0.97513934 0.97513934 0.97514035 0.97514238 0.97514238
- 0.97514238 0.97521536 0.97521941 0.97522144 0.97522144 0.97522245
- 0.97522448 0.97522448 0.97522549 0.97522752 0.97522752 0.97522752
- 0.97522752 0.97522752 0.97522853 0.97522853 0.97522853 0.97522853
- 0.97523157 0.97523157 0.97523461 0.97523461 0.97523461 0.97523461
- 0.97523563 0.97523563 0.97523664 0.97523664 0.97523664 0.97523867
- 0.97523867 0.9752407  0.97524374 0.97524374 0.97526097 0.97526097
- 0.97526198 0.97526502 0.97526908 0.97526908 0.97526908 0.97526908
- 0.97527009 0.97681172 0.97681172 0.97681172 0.97681172 0.97681172
- 0.97681172 0.97681172 0.97681172 0.97681374 0.97681374 0.97681374
- 0.97681374 0.97681374 0.97695463 0.97695666 0.97695666 0.97695666
- 0.97713606 0.97715329 0.97715329 0.97715329 0.97715329 0.9771543
- 0.97715633 0.97716038 0.97716038 0.97716241 0.97716241 0.97716444
- 0.97716748 0.97716748 0.97716748 0.97716849 0.97717052 0.97717052
- 0.97717052 0.97717052 0.97717153 0.97717153 0.97717153 0.97717153
- 0.97717153 0.97717153 0.97717153 0.97717153 0.97717153 0.97717153
- 0.97717153 0.97717153 0.97717153 0.97717255 0.97717255 0.97717255
- 0.97718978 0.97719079 0.97719079 0.9772739  0.97727593 0.97727593
- 0.98224137 0.98224137 0.98224137 0.98692707 0.98692707 0.98697471
- 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471
- 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471
- 0.98697471 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687
- 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687
- 0.98698687 0.9869889  0.9869889  0.9869889  0.9869889  0.9869889
- 0.9869889  0.99932395 0.99932395 0.99934321 0.99934321 0.99934321
- 0.99934321 0.99934321 0.99934321 0.99934321 0.99934321 0.99934321
- 0.99934321 0.99934321 0.99934321 0.99934321 0.99934524 0.99934524
- 0.99934524 0.99934524 0.99934524 0.99934524 0.99934524 0.99934524
- 0.99934524 0.99934524 0.99934524 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99999189 0.99999189 1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.        ]</t>
   </si>
   <si>
     <t>attack_type_</t>
@@ -656,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,11 +607,8 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>24102</v>
       </c>
@@ -726,10 +616,10 @@
         <v>35538</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>35538</v>
@@ -741,10 +631,10 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -756,22 +646,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8145</v>
       </c>
       <c r="O2">
-        <v>8145</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q2">
-        <v>0.0005</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>79207</v>
       </c>
@@ -794,10 +681,10 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -809,22 +696,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>17324</v>
       </c>
       <c r="O3">
-        <v>17324</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q3">
-        <v>0.0005</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>100321</v>
       </c>
@@ -847,10 +731,10 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -862,22 +746,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15881</v>
       </c>
       <c r="O4">
-        <v>15881</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q4">
-        <v>0.0005</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>141997</v>
       </c>
@@ -900,10 +781,10 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -915,22 +796,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12026</v>
       </c>
       <c r="O5">
-        <v>12026</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q5">
-        <v>0.0005</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>156967</v>
       </c>
@@ -953,10 +831,10 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -968,22 +846,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7540</v>
       </c>
       <c r="O6">
-        <v>7540</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q6">
-        <v>0.0005</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>168352</v>
       </c>
@@ -1006,10 +881,10 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1021,22 +896,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>26163</v>
       </c>
       <c r="O7">
-        <v>26163</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q7">
-        <v>0.0005</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>229247</v>
       </c>
@@ -1059,10 +931,10 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1074,22 +946,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2278</v>
       </c>
       <c r="O8">
-        <v>2278</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q8">
-        <v>0.0005</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>239054</v>
       </c>
@@ -1112,10 +981,10 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1127,22 +996,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4803</v>
       </c>
       <c r="O9">
-        <v>4803</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q9">
-        <v>0.0005</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>275848</v>
       </c>
@@ -1165,10 +1031,10 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1180,22 +1046,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7719</v>
       </c>
       <c r="O10">
-        <v>7719</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q10">
-        <v>0.0005</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>285299</v>
       </c>
@@ -1218,10 +1081,10 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1233,22 +1096,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>24635</v>
       </c>
       <c r="O11">
-        <v>24635</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q11">
-        <v>0.0005</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>331597</v>
       </c>
@@ -1271,10 +1131,10 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1286,22 +1146,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>19165</v>
       </c>
       <c r="O12">
-        <v>19165</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q12">
-        <v>0.0005</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>359552</v>
       </c>
@@ -1324,10 +1181,10 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1339,22 +1196,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>17269</v>
       </c>
       <c r="O13">
-        <v>17269</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q13">
-        <v>0.0005</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>388550</v>
       </c>
@@ -1377,10 +1231,10 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1392,22 +1246,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>23752</v>
       </c>
       <c r="O14">
-        <v>23752</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q14">
-        <v>0.0005</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>423316</v>
       </c>
@@ -1430,10 +1281,10 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1445,22 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>20186</v>
       </c>
       <c r="O15">
-        <v>20186</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q15">
-        <v>0.0005</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>454774</v>
       </c>
@@ -1483,10 +1331,10 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1498,22 +1346,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>28005</v>
       </c>
       <c r="O16">
-        <v>28005</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q16">
-        <v>0.0005</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>506000</v>
       </c>
@@ -1536,10 +1381,10 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1551,22 +1396,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>23874</v>
       </c>
       <c r="O17">
-        <v>23874</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q17">
-        <v>0.0005</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>544377</v>
       </c>
@@ -1589,10 +1431,10 @@
         <v>1510</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1604,22 +1446,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="O18">
-        <v>1510</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q18">
-        <v>0.0005</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>560256</v>
       </c>
@@ -1642,10 +1481,10 @@
         <v>4705</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1657,22 +1496,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4705</v>
       </c>
       <c r="O19">
-        <v>4705</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q19">
-        <v>0.0005</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>596656</v>
       </c>
@@ -1695,10 +1531,10 @@
         <v>11947</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1710,22 +1546,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11947</v>
       </c>
       <c r="O20">
-        <v>11947</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q20">
-        <v>0.0005</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>652636</v>
       </c>
@@ -1748,10 +1581,10 @@
         <v>7888</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1763,22 +1596,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7888</v>
       </c>
       <c r="O21">
-        <v>7888</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q21">
-        <v>0.0005</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>664924</v>
       </c>
@@ -1801,10 +1631,10 @@
         <v>11076</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1816,22 +1646,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11076</v>
       </c>
       <c r="O22">
-        <v>11076</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q22">
-        <v>0.0005</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>705714</v>
       </c>
@@ -1854,10 +1681,10 @@
         <v>13118</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1869,22 +1696,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13118</v>
       </c>
       <c r="O23">
-        <v>13118</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q23">
-        <v>0.0005</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>742820</v>
       </c>
@@ -1907,10 +1731,10 @@
         <v>12375</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1922,22 +1746,19 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12375</v>
       </c>
       <c r="O24">
-        <v>12375</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q24">
-        <v>0.0005</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>772919</v>
       </c>
@@ -1960,10 +1781,10 @@
         <v>5607</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1975,22 +1796,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="O25">
-        <v>5607</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q25">
-        <v>0.0005</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>781470</v>
       </c>
@@ -2013,10 +1831,10 @@
         <v>11777</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2028,22 +1846,19 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>11777</v>
       </c>
       <c r="O26">
-        <v>11777</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q26">
-        <v>0.0005</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>822979</v>
       </c>
@@ -2066,10 +1881,10 @@
         <v>10367</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2081,22 +1896,19 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>10367</v>
       </c>
       <c r="O27">
-        <v>10367</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q27">
-        <v>0.0005</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>841016</v>
       </c>
@@ -2119,10 +1931,10 @@
         <v>6247</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2134,22 +1946,19 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="O28">
-        <v>6247</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q28">
-        <v>0.0005</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>899889</v>
       </c>
@@ -2172,10 +1981,10 @@
         <v>5284</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2187,22 +1996,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="O29">
-        <v>5284</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q29">
-        <v>0.0005</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>969127</v>
       </c>
@@ -2225,10 +2031,10 @@
         <v>4651</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2240,22 +2046,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4651</v>
       </c>
       <c r="O30">
-        <v>4651</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q30">
-        <v>0.0005</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>976420</v>
       </c>
@@ -2278,10 +2081,10 @@
         <v>11716</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2293,22 +2096,19 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="O31">
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q31">
-        <v>0.0005</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1008250</v>
       </c>
@@ -2331,10 +2131,10 @@
         <v>8384</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2346,22 +2146,19 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>8384</v>
       </c>
       <c r="O32">
-        <v>8384</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q32">
-        <v>0.0005</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1021444</v>
       </c>
@@ -2384,10 +2181,10 @@
         <v>11582</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2399,22 +2196,19 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>11582</v>
       </c>
       <c r="O33">
-        <v>11582</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q33">
-        <v>0.0005</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>1039429</v>
       </c>
@@ -2437,10 +2231,10 @@
         <v>5919</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2452,22 +2246,19 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5919</v>
       </c>
       <c r="O34">
-        <v>5919</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q34">
-        <v>0.0005</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>1059198</v>
       </c>
@@ -2490,10 +2281,10 @@
         <v>9098</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2505,22 +2296,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>9098</v>
       </c>
       <c r="O35">
-        <v>9098</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q35">
-        <v>0.0005</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>1086702</v>
       </c>
@@ -2543,10 +2331,10 @@
         <v>2289</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2558,22 +2346,19 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>2289</v>
       </c>
       <c r="O36">
-        <v>2289</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q36">
-        <v>0.0005</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>1121463</v>
       </c>
@@ -2596,10 +2381,10 @@
         <v>2073</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2611,22 +2396,19 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="O37">
-        <v>2073</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q37">
-        <v>0.0005</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>1156393</v>
       </c>
@@ -2649,10 +2431,10 @@
         <v>1823</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2664,22 +2446,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="O38">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q38">
-        <v>0.0005</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>1171106</v>
       </c>
@@ -2702,10 +2481,10 @@
         <v>4098</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2717,22 +2496,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>4098</v>
       </c>
       <c r="O39">
-        <v>4098</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q39">
-        <v>0.0005</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1233428</v>
       </c>
@@ -2755,10 +2531,10 @@
         <v>3480</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2770,22 +2546,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>3480</v>
       </c>
       <c r="O40">
-        <v>3480</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q40">
-        <v>0.0005</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>1263573</v>
       </c>
@@ -2808,10 +2581,10 @@
         <v>2446</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2823,22 +2596,19 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>2446</v>
       </c>
       <c r="O41">
-        <v>2446</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q41">
-        <v>0.0005</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>1308188</v>
       </c>
@@ -2861,10 +2631,10 @@
         <v>1626</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2876,22 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1626</v>
       </c>
       <c r="O42">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q42">
-        <v>0.0005</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1338098</v>
       </c>
@@ -2914,10 +2681,10 @@
         <v>3040</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2929,22 +2696,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="O43">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q43">
-        <v>0.0005</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>1343068</v>
       </c>
@@ -2967,10 +2731,10 @@
         <v>3455</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2982,22 +2746,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>3455</v>
       </c>
       <c r="O44">
-        <v>3455</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q44">
-        <v>0.0005</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>1390499</v>
       </c>
@@ -3020,10 +2781,10 @@
         <v>3678</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3035,22 +2796,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>3678</v>
       </c>
       <c r="O45">
-        <v>3678</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q45">
-        <v>0.0005</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>1418369</v>
       </c>
@@ -3073,10 +2831,10 @@
         <v>2846</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3088,22 +2846,19 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2846</v>
       </c>
       <c r="O46">
-        <v>2846</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q46">
-        <v>0.0005</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>1425881</v>
       </c>
@@ -3126,10 +2881,10 @@
         <v>1957</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3141,22 +2896,19 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1957</v>
       </c>
       <c r="O47">
-        <v>1957</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q47">
-        <v>0.0005</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>1431743</v>
       </c>
@@ -3179,10 +2931,10 @@
         <v>3904</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3194,22 +2946,19 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>3904</v>
       </c>
       <c r="O48">
-        <v>3904</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q48">
-        <v>0.0005</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1448476</v>
       </c>
@@ -3232,10 +2981,10 @@
         <v>2693</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3247,22 +2996,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="O49">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q49">
-        <v>0.0005</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1499907</v>
       </c>
@@ -3285,10 +3031,10 @@
         <v>2088</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3300,22 +3046,19 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="O50">
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q50">
-        <v>0.0005</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>1507651</v>
       </c>
@@ -3338,10 +3081,10 @@
         <v>2095</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3353,22 +3096,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="O51">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q51">
-        <v>0.0005</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>1519225</v>
       </c>
@@ -3391,10 +3131,10 @@
         <v>3020</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3406,22 +3146,19 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>3020</v>
       </c>
       <c r="O52">
-        <v>3020</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q52">
-        <v>0.0005</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>1558420</v>
       </c>
@@ -3444,10 +3181,10 @@
         <v>3682</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3459,22 +3196,19 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>3682</v>
       </c>
       <c r="O53">
-        <v>3682</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q53">
-        <v>0.0005</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>1570867</v>
       </c>
@@ -3497,10 +3231,10 @@
         <v>3686</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3512,22 +3246,19 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>3686</v>
       </c>
       <c r="O54">
-        <v>3686</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q54">
-        <v>0.0005</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>1616570</v>
       </c>
@@ -3550,10 +3281,10 @@
         <v>2267</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3565,22 +3296,19 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2267</v>
       </c>
       <c r="O55">
-        <v>2267</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q55">
-        <v>0.0005</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>1646391</v>
       </c>
@@ -3603,10 +3331,10 @@
         <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3618,22 +3346,19 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="O56">
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q56">
-        <v>0.0005</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>1652665</v>
       </c>
@@ -3656,10 +3381,10 @@
         <v>4870</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3671,22 +3396,19 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>4870</v>
       </c>
       <c r="O57">
-        <v>4870</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q57">
-        <v>0.0005</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>1664490</v>
       </c>
@@ -3709,10 +3431,10 @@
         <v>13583</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3724,22 +3446,19 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>13583</v>
       </c>
       <c r="O58">
-        <v>13583</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q58">
-        <v>0.0005</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>1685217</v>
       </c>
@@ -3762,10 +3481,10 @@
         <v>11703</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3777,22 +3496,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>11703</v>
       </c>
       <c r="O59">
-        <v>11703</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q59">
-        <v>0.0005</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>1701047</v>
       </c>
@@ -3815,10 +3531,10 @@
         <v>1676</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3830,22 +3546,19 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="O60">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q60">
-        <v>0.0005</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>1706487</v>
       </c>
@@ -3868,10 +3581,10 @@
         <v>3537</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3883,22 +3596,19 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3537</v>
       </c>
       <c r="O61">
-        <v>3537</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q61">
-        <v>0.0005</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>1722708</v>
       </c>
@@ -3921,10 +3631,10 @@
         <v>8493</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3936,22 +3646,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>8493</v>
       </c>
       <c r="O62">
-        <v>8493</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q62">
-        <v>0.0005</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>1773864</v>
       </c>
@@ -3974,10 +3681,10 @@
         <v>6365</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3989,22 +3696,19 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>6365</v>
       </c>
       <c r="O63">
-        <v>6365</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q63">
-        <v>0.0005</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>1790132</v>
       </c>
@@ -4027,10 +3731,10 @@
         <v>6122</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4042,22 +3746,19 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>6122</v>
       </c>
       <c r="O64">
-        <v>6122</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q64">
-        <v>0.0005</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>1806229</v>
       </c>
@@ -4080,10 +3781,10 @@
         <v>7225</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4095,22 +3796,19 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>7225</v>
       </c>
       <c r="O65">
-        <v>7225</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q65">
-        <v>0.0005</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>1820219</v>
       </c>
@@ -4133,10 +3831,10 @@
         <v>3872</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4148,22 +3846,19 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>3872</v>
       </c>
       <c r="O66">
-        <v>3872</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q66">
-        <v>0.0005</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>1886993</v>
       </c>
@@ -4186,10 +3881,10 @@
         <v>19891</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4201,22 +3896,19 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>19891</v>
       </c>
       <c r="O67">
-        <v>19891</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q67">
-        <v>0.0005</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>1922028</v>
       </c>
@@ -4239,10 +3931,10 @@
         <v>11590</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4254,22 +3946,19 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>11590</v>
       </c>
       <c r="O68">
-        <v>11590</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q68">
-        <v>0.0005</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>1971023</v>
       </c>
@@ -4292,10 +3981,10 @@
         <v>13473</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4307,22 +3996,19 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>13473</v>
       </c>
       <c r="O69">
-        <v>13473</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q69">
-        <v>0.0005</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>2000135</v>
       </c>
@@ -4345,10 +4031,10 @@
         <v>12799</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4360,22 +4046,19 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>12799</v>
       </c>
       <c r="O70">
-        <v>12799</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q70">
-        <v>0.0005</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>2046957</v>
       </c>
@@ -4398,10 +4081,10 @@
         <v>7907</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4413,22 +4096,19 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>7907</v>
       </c>
       <c r="O71">
-        <v>7907</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q71">
-        <v>0.0005</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>2072676</v>
       </c>
@@ -4451,10 +4131,10 @@
         <v>13974</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4466,22 +4146,19 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>13974</v>
       </c>
       <c r="O72">
-        <v>13974</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q72">
-        <v>0.0005</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>2112708</v>
       </c>
@@ -4504,10 +4181,10 @@
         <v>8372</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4519,22 +4196,19 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="O73">
-        <v>8372</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q73">
-        <v>0.0005</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>2159109</v>
       </c>
@@ -4557,10 +4231,10 @@
         <v>10269</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4572,22 +4246,19 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>10269</v>
       </c>
       <c r="O74">
-        <v>10269</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q74">
-        <v>0.0005</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>2172780</v>
       </c>
@@ -4610,10 +4281,10 @@
         <v>5910</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
-      </c>
-      <c r="J75" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4625,22 +4296,19 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>5910</v>
       </c>
       <c r="O75">
-        <v>5910</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q75">
-        <v>0.0005</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>2229131</v>
       </c>
@@ -4663,10 +4331,10 @@
         <v>7135</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
-      </c>
-      <c r="J76" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4678,22 +4346,19 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>7135</v>
       </c>
       <c r="O76">
-        <v>7135</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q76">
-        <v>0.0005</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>2253797</v>
       </c>
@@ -4716,10 +4381,10 @@
         <v>12798</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -4731,22 +4396,19 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>12798</v>
       </c>
       <c r="O77">
-        <v>12798</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q77">
-        <v>0.0005</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>2309409</v>
       </c>
@@ -4769,10 +4431,10 @@
         <v>6467</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4784,22 +4446,19 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>6467</v>
       </c>
       <c r="O78">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q78">
-        <v>0.0005</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>2323101</v>
       </c>
@@ -4822,10 +4481,10 @@
         <v>15894</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4837,22 +4496,19 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>15894</v>
       </c>
       <c r="O79">
-        <v>15894</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q79">
-        <v>0.0005</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>2411288</v>
       </c>
@@ -4875,10 +4531,10 @@
         <v>13013</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4890,22 +4546,19 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>13013</v>
       </c>
       <c r="O80">
-        <v>13013</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q80">
-        <v>0.0005</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>2459512</v>
       </c>
@@ -4928,10 +4581,10 @@
         <v>9608</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4943,22 +4596,19 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>9608</v>
       </c>
       <c r="O81">
-        <v>9608</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q81">
-        <v>0.0005</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>2475510</v>
       </c>
@@ -4981,10 +4631,10 @@
         <v>11435</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4996,22 +4646,19 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>11435</v>
       </c>
       <c r="O82">
-        <v>11435</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q82">
-        <v>0.0005</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>2496355</v>
       </c>
@@ -5034,10 +4681,10 @@
         <v>19308</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5049,22 +4696,19 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>19308</v>
       </c>
       <c r="O83">
-        <v>19308</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q83">
-        <v>0.0005</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>2528818</v>
       </c>
@@ -5087,10 +4731,10 @@
         <v>17977</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
-      </c>
-      <c r="J84" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5102,22 +4746,19 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>17977</v>
       </c>
       <c r="O84">
-        <v>17977</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q84">
-        <v>0.0005</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>2560777</v>
       </c>
@@ -5140,10 +4781,10 @@
         <v>11619</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5155,22 +4796,19 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>11619</v>
       </c>
       <c r="O85">
-        <v>11619</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q85">
-        <v>0.0005</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>2593081</v>
       </c>
@@ -5193,10 +4831,10 @@
         <v>10034</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5208,22 +4846,19 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>10034</v>
       </c>
       <c r="O86">
-        <v>10034</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q86">
-        <v>0.0005</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>2620181</v>
       </c>
@@ -5246,10 +4881,10 @@
         <v>19359</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5261,22 +4896,19 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>19359</v>
       </c>
       <c r="O87">
-        <v>19359</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q87">
-        <v>0.0005</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>2711672</v>
       </c>
@@ -5299,10 +4931,10 @@
         <v>17057</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5314,22 +4946,19 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>17057</v>
       </c>
       <c r="O88">
-        <v>17057</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q88">
-        <v>0.0005</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>2791929</v>
       </c>
@@ -5352,10 +4981,10 @@
         <v>13998</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5367,22 +4996,19 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>13998</v>
       </c>
       <c r="O89">
-        <v>13998</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q89">
-        <v>0.0005</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>2811434</v>
       </c>
@@ -5405,10 +5031,10 @@
         <v>15030</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5420,22 +5046,19 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="O90">
-        <v>15030</v>
+        <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q90">
-        <v>0.0005</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>2843994</v>
       </c>
@@ -5458,10 +5081,10 @@
         <v>19560</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5473,22 +5096,19 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>19560</v>
       </c>
       <c r="O91">
-        <v>19560</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q91">
-        <v>0.0005</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>2888575</v>
       </c>
@@ -5511,10 +5131,10 @@
         <v>17258</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5526,22 +5146,19 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>17258</v>
       </c>
       <c r="O92">
-        <v>17258</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q92">
-        <v>0.0005</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>2932391</v>
       </c>
@@ -5564,10 +5181,10 @@
         <v>10429</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5579,22 +5196,19 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>10429</v>
       </c>
       <c r="O93">
-        <v>10429</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q93">
-        <v>0.0005</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>2945466</v>
       </c>
@@ -5617,10 +5231,10 @@
         <v>9922</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5632,22 +5246,19 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>9922</v>
       </c>
       <c r="O94">
-        <v>9922</v>
+        <v>0</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q94">
-        <v>0.0005</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>2967253</v>
       </c>
@@ -5670,10 +5281,10 @@
         <v>8446</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5685,22 +5296,19 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>8446</v>
       </c>
       <c r="O95">
-        <v>8446</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q95">
-        <v>0.0005</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>3037447</v>
       </c>
@@ -5723,10 +5331,10 @@
         <v>18897</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5738,22 +5346,19 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>18897</v>
       </c>
       <c r="O96">
-        <v>18897</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q96">
-        <v>0.0005</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>3064638</v>
       </c>
@@ -5776,10 +5381,10 @@
         <v>10342</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5791,22 +5396,19 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="O97">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q97">
-        <v>0.0005</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>3091002</v>
       </c>
@@ -5829,10 +5431,10 @@
         <v>19051</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5844,22 +5446,19 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>19051</v>
       </c>
       <c r="O98">
-        <v>19051</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q98">
-        <v>0.0005</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>3128490</v>
       </c>
@@ -5882,10 +5481,10 @@
         <v>15102</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5897,22 +5496,19 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>15102</v>
       </c>
       <c r="O99">
-        <v>15102</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q99">
-        <v>0.0005</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>3152819</v>
       </c>
@@ -5935,10 +5531,10 @@
         <v>5309</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -5950,22 +5546,19 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>5309</v>
       </c>
       <c r="O100">
-        <v>5309</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q100">
-        <v>0.0005</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>3179521</v>
       </c>
@@ -5988,10 +5581,10 @@
         <v>10158</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
-      </c>
-      <c r="J101" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -6003,18 +5596,15 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="O101">
-        <v>10158</v>
+        <v>0</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q101">
-        <v>0.0005</v>
-      </c>
-      <c r="R101">
         <v>0</v>
       </c>
     </row>
@@ -6025,13 +5615,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6083,81 +5673,78 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="D2">
         <v>29.063697</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="D3">
         <v>28.272247</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="D4">
         <v>19.098815</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="D5">
         <v>18.066497</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="D6">
         <v>10.052762</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17">
       <c r="D7">
         <v>29.47542</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="D8">
         <v>13.65266</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17">
       <c r="D9">
         <v>18.326114</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="D10">
         <v>10.006354</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="D11">
         <v>28.652963</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="D12">
         <v>21.147005</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="D13">
         <v>15.915717</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17">
       <c r="D14">
         <v>25.80249</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17">
       <c r="D15">
         <v>20.931101</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:17">
       <c r="D16">
         <v>28.357632</v>
       </c>
@@ -6602,52 +6189,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6668,71 +6255,71 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6750,37 +6337,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6803,7 +6390,7 @@
         <v>29.849686</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -44,13 +44,13 @@
     <t>attack_type</t>
   </si>
   <si>
-    <t>fpr</t>
-  </si>
-  <si>
     <t>pr</t>
   </si>
   <si>
     <t>rec</t>
+  </si>
+  <si>
+    <t>fpr</t>
   </si>
   <si>
     <t>tn</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>detected</t>
-  </si>
-  <si>
-    <t>29063697000 nanoseconds</t>
   </si>
   <si>
     <t>BF1_DDoS_AD</t>
@@ -190,7 +187,7 @@
 97    0.0005
 98    0.0005
 99    0.0005
-Name: target_fpr, Length: 100, dtype: object</t>
+Name: target_fpr, Length: 100, dtype: float64</t>
   </si>
 </sst>
 </file>
@@ -615,11 +612,11 @@
       <c r="B2">
         <v>35538</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="C2" s="2">
+        <v>0.0003363853819444445</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0003363853819444445</v>
       </c>
       <c r="E2">
         <v>35538</v>
@@ -631,12 +628,12 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
@@ -681,12 +678,12 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -731,12 +728,12 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
@@ -781,12 +778,12 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
@@ -831,12 +828,12 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
@@ -881,12 +878,12 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
@@ -931,12 +928,12 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
@@ -981,12 +978,12 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
@@ -1031,12 +1028,12 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
@@ -1081,12 +1078,12 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
@@ -1131,12 +1128,12 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
@@ -1181,12 +1178,12 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
@@ -1231,12 +1228,12 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
@@ -1281,12 +1278,12 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
@@ -1331,12 +1328,12 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
@@ -1381,12 +1378,12 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
@@ -1431,12 +1428,12 @@
         <v>1510</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
@@ -1481,12 +1478,12 @@
         <v>4705</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
@@ -1531,12 +1528,12 @@
         <v>11947</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
@@ -1581,12 +1578,12 @@
         <v>7888</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
@@ -1631,12 +1628,12 @@
         <v>11076</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
@@ -1681,12 +1678,12 @@
         <v>13118</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
@@ -1731,12 +1728,12 @@
         <v>12375</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
@@ -1781,12 +1778,12 @@
         <v>5607</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
@@ -1831,12 +1828,12 @@
         <v>11777</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
@@ -1881,12 +1878,12 @@
         <v>10367</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
@@ -1931,12 +1928,12 @@
         <v>6247</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
@@ -1981,12 +1978,12 @@
         <v>5284</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
@@ -2031,12 +2028,12 @@
         <v>4651</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
@@ -2081,12 +2078,12 @@
         <v>11716</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
@@ -2131,12 +2128,12 @@
         <v>8384</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
@@ -2181,12 +2178,12 @@
         <v>11582</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
@@ -2231,12 +2228,12 @@
         <v>5919</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
@@ -2281,12 +2278,12 @@
         <v>9098</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
@@ -2331,12 +2328,12 @@
         <v>2289</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
@@ -2381,12 +2378,12 @@
         <v>2073</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
@@ -2431,12 +2428,12 @@
         <v>1823</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
@@ -2481,12 +2478,12 @@
         <v>4098</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
@@ -2531,12 +2528,12 @@
         <v>3480</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
@@ -2581,12 +2578,12 @@
         <v>2446</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
@@ -2631,12 +2628,12 @@
         <v>1626</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
@@ -2681,12 +2678,12 @@
         <v>3040</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
@@ -2731,12 +2728,12 @@
         <v>3455</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
@@ -2781,12 +2778,12 @@
         <v>3678</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
@@ -2831,12 +2828,12 @@
         <v>2846</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
@@ -2881,12 +2878,12 @@
         <v>1957</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
@@ -2931,12 +2928,12 @@
         <v>3904</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
@@ -2981,12 +2978,12 @@
         <v>2693</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
@@ -3031,12 +3028,12 @@
         <v>2088</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
@@ -3081,12 +3078,12 @@
         <v>2095</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
@@ -3131,12 +3128,12 @@
         <v>3020</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
@@ -3181,12 +3178,12 @@
         <v>3682</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
@@ -3231,12 +3228,12 @@
         <v>3686</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
@@ -3281,12 +3278,12 @@
         <v>2267</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
@@ -3331,12 +3328,12 @@
         <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
@@ -3381,12 +3378,12 @@
         <v>4870</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
@@ -3431,12 +3428,12 @@
         <v>13583</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
@@ -3481,12 +3478,12 @@
         <v>11703</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
@@ -3531,12 +3528,12 @@
         <v>1676</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
@@ -3581,12 +3578,12 @@
         <v>3537</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
@@ -3631,12 +3628,12 @@
         <v>8493</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
@@ -3681,12 +3678,12 @@
         <v>6365</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
@@ -3731,12 +3728,12 @@
         <v>6122</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
@@ -3781,12 +3778,12 @@
         <v>7225</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
@@ -3831,12 +3828,12 @@
         <v>3872</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
@@ -3881,12 +3878,12 @@
         <v>19891</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
@@ -3931,12 +3928,12 @@
         <v>11590</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
@@ -3981,12 +3978,12 @@
         <v>13473</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
@@ -4031,12 +4028,12 @@
         <v>12799</v>
       </c>
       <c r="H70" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
@@ -4081,12 +4078,12 @@
         <v>7907</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
@@ -4131,12 +4128,12 @@
         <v>13974</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
@@ -4181,12 +4178,12 @@
         <v>8372</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
@@ -4231,12 +4228,12 @@
         <v>10269</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
@@ -4281,12 +4278,12 @@
         <v>5910</v>
       </c>
       <c r="H75" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
@@ -4331,12 +4328,12 @@
         <v>7135</v>
       </c>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
@@ -4381,12 +4378,12 @@
         <v>12798</v>
       </c>
       <c r="H77" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
@@ -4431,12 +4428,12 @@
         <v>6467</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
@@ -4481,12 +4478,12 @@
         <v>15894</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
@@ -4531,12 +4528,12 @@
         <v>13013</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
@@ -4581,12 +4578,12 @@
         <v>9608</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
@@ -4631,12 +4628,12 @@
         <v>11435</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
@@ -4681,12 +4678,12 @@
         <v>19308</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
@@ -4731,12 +4728,12 @@
         <v>17977</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
@@ -4781,12 +4778,12 @@
         <v>11619</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
@@ -4831,12 +4828,12 @@
         <v>10034</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
@@ -4881,12 +4878,12 @@
         <v>19359</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
@@ -4931,12 +4928,12 @@
         <v>17057</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
@@ -4981,12 +4978,12 @@
         <v>13998</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
@@ -5031,12 +5028,12 @@
         <v>15030</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
@@ -5081,12 +5078,12 @@
         <v>19560</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
@@ -5131,12 +5128,12 @@
         <v>17258</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
@@ -5181,12 +5178,12 @@
         <v>10429</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
@@ -5231,12 +5228,12 @@
         <v>9922</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
@@ -5281,12 +5278,12 @@
         <v>8446</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
@@ -5331,12 +5328,12 @@
         <v>18897</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
@@ -5381,12 +5378,12 @@
         <v>10342</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
@@ -5431,12 +5428,12 @@
         <v>19051</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
@@ -5481,12 +5478,12 @@
         <v>15102</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
@@ -5531,12 +5528,12 @@
         <v>5309</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
@@ -5581,12 +5578,12 @@
         <v>10158</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
@@ -6189,52 +6186,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6255,13 +6252,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -6269,57 +6266,57 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6337,34 +6334,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
@@ -6390,7 +6387,7 @@
         <v>29.849686</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.0005_all.xlsx
@@ -7,18 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sequences_results" sheetId="1" r:id="rId1"/>
+    <sheet name="all_sequences_results" sheetId="1" r:id="rId1"/>
     <sheet name="detected_sequences_results" sheetId="2" r:id="rId2"/>
-    <sheet name="avg_results_for_attacks_type" sheetId="3" r:id="rId3"/>
-    <sheet name="attacks_detection_rate" sheetId="4" r:id="rId4"/>
-    <sheet name="all_summary" sheetId="5" r:id="rId5"/>
+    <sheet name="avg_results_for_attack_type" sheetId="3" r:id="rId3"/>
+    <sheet name="detection_rate_for_attack_type" sheetId="4" r:id="rId4"/>
+    <sheet name="overall_results" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -174,20 +174,6 @@
   </si>
   <si>
     <t>max_idx_detection_rel</t>
-  </si>
-  <si>
-    <t>0     0.0005
-1     0.0005
-2     0.0005
-3     0.0005
-4     0.0005
-       ...  
-95    0.0005
-96    0.0005
-97    0.0005
-98    0.0005
-99    0.0005
-Name: target_fpr, Length: 100, dtype: float64</t>
   </si>
 </sst>
 </file>
@@ -6387,7 +6373,7 @@
         <v>29.849686</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
